--- a/packages/database-scripts/data/raw.xlsx
+++ b/packages/database-scripts/data/raw.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD899428-F238-40CD-89FB-AB03362C237A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB02CE-D474-4379-8389-86CBCDE75605}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>intermediate</t>
+  </si>
+  <si>
+    <t>introductory</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +613,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
@@ -625,7 +628,7 @@
       <formula1>"artificial intelligence, cloud, design, marketing, programming, psychology, startup, web development"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F9EE5D4E-708A-4A0C-8EFF-25F8A9B45CCE}">
-      <formula1>"primer,fundamental,intermediate,advanced"</formula1>
+      <formula1>"introductory,fundamental,intermediate,advanced"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/packages/database-scripts/data/raw.xlsx
+++ b/packages/database-scripts/data/raw.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB02CE-D474-4379-8389-86CBCDE75605}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE070FAD-11EF-46D1-A54C-F81C6CC8640F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/47189234/modify-routing-in-gatsby-site;course</t>
-  </si>
-  <si>
-    <t>primer</t>
   </si>
   <si>
     <t>fundamental</t>
@@ -184,9 +181,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +466,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,15 +556,14 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -578,15 +573,14 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -596,7 +590,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -613,7 +607,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>

--- a/packages/database-scripts/data/raw.xlsx
+++ b/packages/database-scripts/data/raw.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE070FAD-11EF-46D1-A54C-F81C6CC8640F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFD214-56E1-43CF-9765-61DCA2BAA7AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -97,15 +97,6 @@
     <t>url19</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>https://medium.freecodecamp.org/before-you-can-master-design-you-must-first-master-the-fundamentals-1981a2af1fda;article</t>
-  </si>
-  <si>
     <t>artificial intelligence</t>
   </si>
   <si>
@@ -115,30 +106,6 @@
     <t>programming</t>
   </si>
   <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>asdadsa</t>
-  </si>
-  <si>
-    <t>acxc</t>
-  </si>
-  <si>
-    <t>a;s</t>
-  </si>
-  <si>
-    <t>safsa;safsaf</t>
-  </si>
-  <si>
-    <t>asd;as</t>
-  </si>
-  <si>
-    <t>https://www.techrepublic.com/blog/microsoft-office/how-to-add-a-drop-down-list-to-an-excel-cell;video</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/47189234/modify-routing-in-gatsby-site;course</t>
-  </si>
-  <si>
     <t>fundamental</t>
   </si>
   <si>
@@ -146,19 +113,139 @@
   </si>
   <si>
     <t>introductory</t>
+  </si>
+  <si>
+    <t>web development</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>React Hooks</t>
+  </si>
+  <si>
+    <t>Getting Started with Machine Learning</t>
+  </si>
+  <si>
+    <t>Design Fundamental</t>
+  </si>
+  <si>
+    <t>machine learning;data science</t>
+  </si>
+  <si>
+    <t>Getting Started with GraphQL</t>
+  </si>
+  <si>
+    <t>GraphQL;backend</t>
+  </si>
+  <si>
+    <t>visual design;design principles</t>
+  </si>
+  <si>
+    <t>react;hooks;state management</t>
+  </si>
+  <si>
+    <t>url0type</t>
+  </si>
+  <si>
+    <t>url1type</t>
+  </si>
+  <si>
+    <t>url2type</t>
+  </si>
+  <si>
+    <t>url3type</t>
+  </si>
+  <si>
+    <t>url4type</t>
+  </si>
+  <si>
+    <t>url5type</t>
+  </si>
+  <si>
+    <t>url6type</t>
+  </si>
+  <si>
+    <t>url7type</t>
+  </si>
+  <si>
+    <t>url8type</t>
+  </si>
+  <si>
+    <t>url9type</t>
+  </si>
+  <si>
+    <t>url10type</t>
+  </si>
+  <si>
+    <t>url11type</t>
+  </si>
+  <si>
+    <t>url12type</t>
+  </si>
+  <si>
+    <t>url13type</t>
+  </si>
+  <si>
+    <t>url14type</t>
+  </si>
+  <si>
+    <t>url15type</t>
+  </si>
+  <si>
+    <t>url16type</t>
+  </si>
+  <si>
+    <t>url17type</t>
+  </si>
+  <si>
+    <t>url18type</t>
+  </si>
+  <si>
+    <t>url19type</t>
+  </si>
+  <si>
+    <t>https://www.coursera.org/learn/machine-learning</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>https://medium.com/@dan_abramov/making-sense-of-react-hooks-fdbde8803889</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>https://medium.freecodecamp.org/a-beginners-guide-to-graphql-86f849ce1bec</t>
+  </si>
+  <si>
+    <t>https://medium.com/machine-learning-for-humans/why-machine-learning-matters-6164faf1df12</t>
+  </si>
+  <si>
+    <t>https://medium.com/@ageitgey/machine-learning-is-fun-80ea3ec3c471</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF89CA78"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,8 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,15 +556,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="10" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="10" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="10" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="26" width="10" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="10" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
+    <col min="30" max="30" width="10" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="10" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="34" max="34" width="10" style="2" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="10" style="2" customWidth="1"/>
+    <col min="37" max="37" width="10" customWidth="1"/>
+    <col min="38" max="38" width="10" style="2" customWidth="1"/>
+    <col min="39" max="39" width="10" customWidth="1"/>
+    <col min="40" max="40" width="10" style="2" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="10" style="2" customWidth="1"/>
+    <col min="43" max="43" width="10" customWidth="1"/>
+    <col min="44" max="44" width="10" style="2" customWidth="1"/>
+    <col min="45" max="45" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,138 +629,226 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AE1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AI1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AM1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AQ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" t="s">
         <v>24</v>
       </c>
+      <c r="AS1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{C685769F-B5CF-48BC-932B-1B3D1908B6FF}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576 B2:B5" xr:uid="{C685769F-B5CF-48BC-932B-1B3D1908B6FF}">
       <formula1>"artificial intelligence, cloud, design, marketing, programming, psychology, startup, web development"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{F9EE5D4E-708A-4A0C-8EFF-25F8A9B45CCE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C1048576 C2:C5" xr:uid="{F9EE5D4E-708A-4A0C-8EFF-25F8A9B45CCE}">
       <formula1>"introductory,fundamental,intermediate,advanced"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 G2:G1048576 K2:K1048576 M2:M1048576 O2:O1048576 Q2:Q1048576 S2:S1048576 U2:U1048576 W2:W1048576 Y2:Y1048576 AA2:AA1048576 AC2:AC1048576 AE2:AE1048576 AG2:AG1048576 AI2:AI1048576 AK2:AK1048576 AM2:AM1048576 AO2:AO1048576 AQ2:AQ1048576 AS2:AS1048576" xr:uid="{0F5DD6E7-0AED-4736-8396-9F08D05301C1}">
+      <formula1>"article, book, code, course, podcast, url, video"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
